--- a/Scenario_A/CoMo doc/TH_CoMoCOVID_susceptibility_A_high_risk_70_1year.xlsx
+++ b/Scenario_A/CoMo doc/TH_CoMoCOVID_susceptibility_A_high_risk_70_1year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\como\wave1_2022\Scenario_A\susceptibility_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanaphum\Documents\GitHub\CoVac19TH\Scenario_A\CoMo doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7419CA-7990-46BA-936D-5EB9C1B0C3C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1EECC6-5C70-4674-ACA9-12D2316C71EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" tabRatio="648" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" tabRatio="648" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Interventions Param'!$A$1:$F$25</definedName>
@@ -3894,7 +3893,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{BA153BD5-E861-4963-92C0-E2D628693DB1}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3903,26 +3902,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2"/>
@@ -4048,18 +4027,18 @@
       <sheetName val="HIDDEN"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="E2" t="str">
@@ -4204,19 +4183,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HIDDEN"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6223,7 +6189,7 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D16" sqref="A5:D16"/>
     </sheetView>
   </sheetViews>
@@ -7532,22 +7498,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:F78">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>NOT(OR($A17="Vaccination",$A17="School Closures",$A17="Partial School Closures",$A17="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F92">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>NOT(OR($A79="Vaccination",$A79="School Closures",$A79="Partial School Closures",$A79="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>NOT(OR($A93="Vaccination",$A93="School Closures",$A93="Partial School Closures",$A93="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>NOT(OR($A2="Vaccination",$A2="School Closures",$A2="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18712,8 +18678,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -18748,7 +18714,7 @@
         <v>186</v>
       </c>
       <c r="B2" s="72">
-        <v>177292</v>
+        <v>300000</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>187</v>
@@ -19322,7 +19288,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="51" customFormat="1" ht="16">
+    <row r="14" spans="1:5" s="51" customFormat="1" ht="31.5">
       <c r="A14" s="57" t="s">
         <v>244</v>
       </c>
